--- a/Data/Bilançolar/DAGI.xlsx
+++ b/Data/Bilançolar/DAGI.xlsx
@@ -13374,7 +13374,7 @@
         <v>8299558</v>
       </c>
       <c r="C86" t="n">
-        <v>9193492</v>
+        <v>4233408</v>
       </c>
       <c r="D86" t="n">
         <v>6088425</v>
@@ -13827,7 +13827,7 @@
         <v>27735817</v>
       </c>
       <c r="C89" t="n">
-        <v>-270150</v>
+        <v>-5230234</v>
       </c>
       <c r="D89" t="n">
         <v>-9164051</v>
@@ -14129,7 +14129,7 @@
         <v>10286584</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>4960084</v>
       </c>
       <c r="D91" t="n">
         <v>147863</v>
@@ -15186,7 +15186,7 @@
         <v>10286584</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>4960084</v>
       </c>
       <c r="D98" t="n">
         <v>147394</v>
@@ -17149,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>-0</v>
